--- a/data/pca/factorExposure/factorExposure_2010-02-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01722567449018165</v>
+        <v>0.01703903890562291</v>
       </c>
       <c r="C2">
-        <v>0.0005270092681326725</v>
+        <v>0.0009328082003364095</v>
       </c>
       <c r="D2">
-        <v>-0.006294126554634178</v>
+        <v>0.007314109193993447</v>
       </c>
       <c r="E2">
-        <v>-0.02177931500760128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-6.963977799286534e-05</v>
+      </c>
+      <c r="F2">
+        <v>-0.009395766166276791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1299106766671415</v>
+        <v>0.0934594977058565</v>
       </c>
       <c r="C4">
-        <v>0.04663326748776257</v>
+        <v>0.01575333110312215</v>
       </c>
       <c r="D4">
-        <v>-0.03833965707544304</v>
+        <v>0.08396550912817705</v>
       </c>
       <c r="E4">
-        <v>0.003741095426153483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02974691562358608</v>
+      </c>
+      <c r="F4">
+        <v>0.02843028983323116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1112255542973</v>
+        <v>0.156430614395016</v>
       </c>
       <c r="C6">
-        <v>-0.02900037458953674</v>
+        <v>0.02460248825783418</v>
       </c>
       <c r="D6">
-        <v>-0.00611172298447539</v>
+        <v>-0.02258585082319604</v>
       </c>
       <c r="E6">
-        <v>-0.01351636064880726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01098803870069073</v>
+      </c>
+      <c r="F6">
+        <v>0.05151248909471948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07758615062821317</v>
+        <v>0.05947452764864462</v>
       </c>
       <c r="C7">
-        <v>0.02517976544856015</v>
+        <v>-0.0009399104510866207</v>
       </c>
       <c r="D7">
-        <v>-0.05160783356304292</v>
+        <v>0.05244226388029792</v>
       </c>
       <c r="E7">
-        <v>-0.0411459771202472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01364491088126405</v>
+      </c>
+      <c r="F7">
+        <v>0.0435118063184074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05468172844908611</v>
+        <v>0.05808813795171077</v>
       </c>
       <c r="C8">
-        <v>0.01088944976805167</v>
+        <v>-0.01329318403195084</v>
       </c>
       <c r="D8">
-        <v>-0.02306812934200376</v>
+        <v>0.03090285737302912</v>
       </c>
       <c r="E8">
-        <v>-0.0229750675637528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01562521801473473</v>
+      </c>
+      <c r="F8">
+        <v>-0.03125372339520874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.1002908042658977</v>
+        <v>0.07147068270364916</v>
       </c>
       <c r="C9">
-        <v>0.04844275358199181</v>
+        <v>0.01168502673583419</v>
       </c>
       <c r="D9">
-        <v>-0.01586316410686971</v>
+        <v>0.08460331328160396</v>
       </c>
       <c r="E9">
-        <v>-0.01118977982795846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02414265041012149</v>
+      </c>
+      <c r="F9">
+        <v>0.04829324029886712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.06343630992479951</v>
+        <v>0.0953669173527833</v>
       </c>
       <c r="C10">
-        <v>-0.1777471688997482</v>
+        <v>0.01818748380595713</v>
       </c>
       <c r="D10">
-        <v>0.06897169806891605</v>
+        <v>-0.1703066603674551</v>
       </c>
       <c r="E10">
-        <v>-0.02380800346977039</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.03849490112661576</v>
+      </c>
+      <c r="F10">
+        <v>-0.05738554505602769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09885677015646087</v>
+        <v>0.08766546362215991</v>
       </c>
       <c r="C11">
-        <v>0.04881498589440351</v>
+        <v>0.0115129879605815</v>
       </c>
       <c r="D11">
-        <v>-0.05795849996336513</v>
+        <v>0.1170119448923664</v>
       </c>
       <c r="E11">
-        <v>-0.04365119797321591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04782376077231671</v>
+      </c>
+      <c r="F11">
+        <v>0.01937398205527618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1036361406763685</v>
+        <v>0.09233911602789807</v>
       </c>
       <c r="C12">
-        <v>0.05825985525458949</v>
+        <v>0.008966893419069182</v>
       </c>
       <c r="D12">
-        <v>-0.066921970272315</v>
+        <v>0.1282218170604019</v>
       </c>
       <c r="E12">
-        <v>-0.039629817534738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04859125741845564</v>
+      </c>
+      <c r="F12">
+        <v>0.0176565349594765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04389561750318619</v>
+        <v>0.04359268735180625</v>
       </c>
       <c r="C13">
-        <v>0.0246351974341174</v>
+        <v>0.003941533834205242</v>
       </c>
       <c r="D13">
-        <v>0.01793061885287981</v>
+        <v>0.0486648579350045</v>
       </c>
       <c r="E13">
-        <v>0.002053035358902354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01286348141464025</v>
+      </c>
+      <c r="F13">
+        <v>0.007281151564006026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02807080612001242</v>
+        <v>0.02281541148080666</v>
       </c>
       <c r="C14">
-        <v>0.004045467101880554</v>
+        <v>0.0141747889182567</v>
       </c>
       <c r="D14">
-        <v>-0.005252094133930144</v>
+        <v>0.0319484489337751</v>
       </c>
       <c r="E14">
-        <v>-0.005830367136388591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01732385976612727</v>
+      </c>
+      <c r="F14">
+        <v>0.01776134837042458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03211473908018567</v>
+        <v>0.03108044754339304</v>
       </c>
       <c r="C15">
-        <v>0.02694122557571128</v>
+        <v>0.0052234013681874</v>
       </c>
       <c r="D15">
-        <v>-0.002618068594446511</v>
+        <v>0.04495025370955571</v>
       </c>
       <c r="E15">
-        <v>-0.01881185512908114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.007258897618878843</v>
+      </c>
+      <c r="F15">
+        <v>0.02762469827785477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.1013588193791439</v>
+        <v>0.07280554925657266</v>
       </c>
       <c r="C16">
-        <v>0.03892538635769236</v>
+        <v>0.002993252867387659</v>
       </c>
       <c r="D16">
-        <v>-0.06586809549042121</v>
+        <v>0.1242524594311402</v>
       </c>
       <c r="E16">
-        <v>-0.04596807728608077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0639232088055075</v>
+      </c>
+      <c r="F16">
+        <v>0.0228924692284576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02642056769343373</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.004023340849712909</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02160926461933887</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.004840096786767054</v>
+      </c>
+      <c r="F18">
+        <v>-0.01572106400638578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05499963463056882</v>
+        <v>0.05996758408707876</v>
       </c>
       <c r="C20">
-        <v>0.0175012422094637</v>
+        <v>0.0005356983751335196</v>
       </c>
       <c r="D20">
-        <v>-0.04479681147673085</v>
+        <v>0.07723681021621255</v>
       </c>
       <c r="E20">
-        <v>0.006181017381967565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05628017619776084</v>
+      </c>
+      <c r="F20">
+        <v>0.02359895562045173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02234816569757126</v>
+        <v>0.03892631313449237</v>
       </c>
       <c r="C21">
-        <v>-0.0056241762594691</v>
+        <v>0.006667999694908339</v>
       </c>
       <c r="D21">
-        <v>-0.001561580936456269</v>
+        <v>0.03507410853088906</v>
       </c>
       <c r="E21">
-        <v>0.03083251234116042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.008182059589519447</v>
+      </c>
+      <c r="F21">
+        <v>-0.02220070808131703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02977667788060308</v>
+        <v>0.04431022518741156</v>
       </c>
       <c r="C22">
-        <v>-0.03552911482467841</v>
+        <v>0.001081079053422673</v>
       </c>
       <c r="D22">
-        <v>0.03676101298488048</v>
+        <v>0.0009735122256248483</v>
       </c>
       <c r="E22">
-        <v>-0.04390691172254339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0264037512625262</v>
+      </c>
+      <c r="F22">
+        <v>-0.01304384437552833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0298807046521823</v>
+        <v>0.04434391176753707</v>
       </c>
       <c r="C23">
-        <v>-0.0354447846693109</v>
+        <v>0.001101962031904961</v>
       </c>
       <c r="D23">
-        <v>0.03627344576144503</v>
+        <v>0.001065059240091324</v>
       </c>
       <c r="E23">
-        <v>-0.04574723662611418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02671350381674683</v>
+      </c>
+      <c r="F23">
+        <v>-0.01250960911222954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.1049392667401377</v>
+        <v>0.07946839638566047</v>
       </c>
       <c r="C24">
-        <v>0.04122819291588662</v>
+        <v>0.003110635212043291</v>
       </c>
       <c r="D24">
-        <v>-0.06290998018483407</v>
+        <v>0.1202274305672247</v>
       </c>
       <c r="E24">
-        <v>-0.03852912186776478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05104987319664576</v>
+      </c>
+      <c r="F24">
+        <v>0.02212571453358277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.1070849252611037</v>
+        <v>0.08484485930699814</v>
       </c>
       <c r="C25">
-        <v>0.0365176056568914</v>
+        <v>0.005345487575779555</v>
       </c>
       <c r="D25">
-        <v>-0.05893800530826587</v>
+        <v>0.1091269638415562</v>
       </c>
       <c r="E25">
-        <v>-0.04595415022786831</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03386337065207776</v>
+      </c>
+      <c r="F25">
+        <v>0.02546475665367848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04284471824958527</v>
+        <v>0.05565665656854085</v>
       </c>
       <c r="C26">
-        <v>-0.01351540080235684</v>
+        <v>0.01442818655313242</v>
       </c>
       <c r="D26">
-        <v>-0.02217007872987043</v>
+        <v>0.0422744589371204</v>
       </c>
       <c r="E26">
-        <v>-0.007977670636555783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02602243392874196</v>
+      </c>
+      <c r="F26">
+        <v>-0.01120493073768357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0545669464418777</v>
+        <v>0.1429376353247029</v>
       </c>
       <c r="C28">
-        <v>-0.2590178735318408</v>
+        <v>0.01709264924371654</v>
       </c>
       <c r="D28">
-        <v>0.1725643645898596</v>
+        <v>-0.2652329103144</v>
       </c>
       <c r="E28">
-        <v>-0.05324541454180886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06838616873814272</v>
+      </c>
+      <c r="F28">
+        <v>0.01934532988022603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02992267515462818</v>
+        <v>0.02692090865915161</v>
       </c>
       <c r="C29">
-        <v>0.008930097310350034</v>
+        <v>0.008396462183261793</v>
       </c>
       <c r="D29">
-        <v>0.003218999203209589</v>
+        <v>0.03137260956472609</v>
       </c>
       <c r="E29">
-        <v>-0.007452523885631658</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01128545581432392</v>
+      </c>
+      <c r="F29">
+        <v>-0.01208182048776169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1245175835868354</v>
+        <v>0.06146197608104823</v>
       </c>
       <c r="C30">
-        <v>0.06541598854914085</v>
+        <v>0.004527339017843636</v>
       </c>
       <c r="D30">
-        <v>-0.03368296648753517</v>
+        <v>0.0862453510632586</v>
       </c>
       <c r="E30">
-        <v>-0.01601335124229658</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02381847176614332</v>
+      </c>
+      <c r="F30">
+        <v>0.09197021174065904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03304014340108674</v>
+        <v>0.04902876118666314</v>
       </c>
       <c r="C31">
-        <v>0.0139906098869065</v>
+        <v>0.01503346848351046</v>
       </c>
       <c r="D31">
-        <v>-0.02683678019198235</v>
+        <v>0.02627412880231267</v>
       </c>
       <c r="E31">
-        <v>-0.01645400559083183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02708909844420275</v>
+      </c>
+      <c r="F31">
+        <v>-0.006017930645442183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06252109185266103</v>
+        <v>0.04833110856338343</v>
       </c>
       <c r="C32">
-        <v>-0.003521140548438602</v>
+        <v>-0.0007025039174663339</v>
       </c>
       <c r="D32">
-        <v>-0.02974107051439912</v>
+        <v>0.03389699592563996</v>
       </c>
       <c r="E32">
-        <v>0.001717351336550831</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.03042222246554216</v>
+      </c>
+      <c r="F32">
+        <v>0.006104814851192235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1097779568698825</v>
+        <v>0.08954865971977365</v>
       </c>
       <c r="C33">
-        <v>0.04741365460795837</v>
+        <v>0.00851191232301131</v>
       </c>
       <c r="D33">
-        <v>-0.03144334832285838</v>
+        <v>0.09818000168722262</v>
       </c>
       <c r="E33">
-        <v>-0.07394105597229472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04629121377524278</v>
+      </c>
+      <c r="F33">
+        <v>0.03758043477481873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.09198535348777941</v>
+        <v>0.06744604813384193</v>
       </c>
       <c r="C34">
-        <v>0.02634293416499276</v>
+        <v>0.01186745054877042</v>
       </c>
       <c r="D34">
-        <v>-0.05244490676014237</v>
+        <v>0.1048901531203229</v>
       </c>
       <c r="E34">
-        <v>-0.03911715994899918</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03622205243253239</v>
+      </c>
+      <c r="F34">
+        <v>0.03505888664038227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01595415609001937</v>
+        <v>0.02446675955494006</v>
       </c>
       <c r="C35">
-        <v>0.01209393373492341</v>
+        <v>0.002399721104159041</v>
       </c>
       <c r="D35">
-        <v>0.00461973797628219</v>
+        <v>0.01250984125080903</v>
       </c>
       <c r="E35">
-        <v>-0.005883534821922984</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01103608603404444</v>
+      </c>
+      <c r="F35">
+        <v>0.006382217341784431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0266283370708231</v>
+        <v>0.02472583786637549</v>
       </c>
       <c r="C36">
-        <v>0.01722468082572141</v>
+        <v>0.007386383352457126</v>
       </c>
       <c r="D36">
-        <v>-0.000667069460163308</v>
+        <v>0.03926720305805068</v>
       </c>
       <c r="E36">
-        <v>-0.0001248847111446464</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.01666039380159167</v>
+      </c>
+      <c r="F36">
+        <v>0.01372845297084016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.00600612821467998</v>
+        <v>0.001480825761179752</v>
       </c>
       <c r="C38">
-        <v>0.000104401819973864</v>
+        <v>0.0002169202176771145</v>
       </c>
       <c r="D38">
-        <v>0.000368911061810522</v>
+        <v>0.0007154738470427947</v>
       </c>
       <c r="E38">
-        <v>-0.0003934001715428246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001102861698285266</v>
+      </c>
+      <c r="F38">
+        <v>-0.001192335670505456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1708104631932077</v>
+        <v>0.1071730850670636</v>
       </c>
       <c r="C39">
-        <v>0.09188619529571591</v>
+        <v>0.01678119101187833</v>
       </c>
       <c r="D39">
-        <v>-0.09515350288983306</v>
+        <v>0.153622848699979</v>
       </c>
       <c r="E39">
-        <v>-0.07273454150220933</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06073817649923462</v>
+      </c>
+      <c r="F39">
+        <v>0.02267867354401561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.008489523705676433</v>
+        <v>0.03758501869651892</v>
       </c>
       <c r="C40">
-        <v>-0.0005278191510641417</v>
+        <v>0.007205978236342736</v>
       </c>
       <c r="D40">
-        <v>-0.009597692250901142</v>
+        <v>0.03302331441235641</v>
       </c>
       <c r="E40">
-        <v>0.01784813379654959</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.001784694755685222</v>
+      </c>
+      <c r="F40">
+        <v>-0.01446686538006156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01756854003678289</v>
+        <v>0.02653934273209519</v>
       </c>
       <c r="C41">
-        <v>-0.0229835240179009</v>
+        <v>0.00658656302101796</v>
       </c>
       <c r="D41">
-        <v>-0.01654241345893265</v>
+        <v>0.01106312917171355</v>
       </c>
       <c r="E41">
-        <v>-0.007283513483871477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01251561445473884</v>
+      </c>
+      <c r="F41">
+        <v>-0.009049399358869682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02700115934109213</v>
+        <v>0.04015738673725807</v>
       </c>
       <c r="C43">
-        <v>-0.01726924892987233</v>
+        <v>0.006659519058120007</v>
       </c>
       <c r="D43">
-        <v>-0.02963574820945061</v>
+        <v>0.02046540740402123</v>
       </c>
       <c r="E43">
-        <v>-0.02772512417305021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02388177021984283</v>
+      </c>
+      <c r="F43">
+        <v>-0.01409484141559872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1414872758483657</v>
+        <v>0.07648112086468598</v>
       </c>
       <c r="C44">
-        <v>0.06457679502754697</v>
+        <v>0.0212455464129141</v>
       </c>
       <c r="D44">
-        <v>-0.04004451179796429</v>
+        <v>0.09764445671141726</v>
       </c>
       <c r="E44">
-        <v>-0.03739722193244365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07389089029493344</v>
+      </c>
+      <c r="F44">
+        <v>0.1705469954431917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01631703727047283</v>
+        <v>0.02352765012077105</v>
       </c>
       <c r="C46">
-        <v>-0.0163784965802738</v>
+        <v>0.003630836399846909</v>
       </c>
       <c r="D46">
-        <v>-0.007760274254559081</v>
+        <v>0.01209173138783472</v>
       </c>
       <c r="E46">
-        <v>-0.03443670528768065</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02244409327704204</v>
+      </c>
+      <c r="F46">
+        <v>0.0005084697895129166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04190105398874954</v>
+        <v>0.05105308644436537</v>
       </c>
       <c r="C47">
-        <v>-0.004053467748915599</v>
+        <v>0.003293716620810998</v>
       </c>
       <c r="D47">
-        <v>-0.01507158704552133</v>
+        <v>0.01321480653608728</v>
       </c>
       <c r="E47">
-        <v>-0.001090588694209976</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02239727260254934</v>
+      </c>
+      <c r="F47">
+        <v>-0.04009592167492661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04424036253306007</v>
+        <v>0.0477245900776766</v>
       </c>
       <c r="C48">
-        <v>0.02024746891022203</v>
+        <v>0.002648904657465254</v>
       </c>
       <c r="D48">
-        <v>-0.0004665230026477191</v>
+        <v>0.05102484942556585</v>
       </c>
       <c r="E48">
-        <v>-0.005926600585259383</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004910935478661893</v>
+      </c>
+      <c r="F48">
+        <v>0.004698222307476246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2179914737355233</v>
+        <v>0.2026078643150293</v>
       </c>
       <c r="C49">
-        <v>-0.05575413165156998</v>
+        <v>0.01777556870661872</v>
       </c>
       <c r="D49">
-        <v>-0.04133756684701122</v>
+        <v>-0.01123232003675932</v>
       </c>
       <c r="E49">
-        <v>0.007816717267497457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.03291070861669963</v>
+      </c>
+      <c r="F49">
+        <v>0.02967539951074783</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04147224599895044</v>
+        <v>0.04881860899256868</v>
       </c>
       <c r="C50">
-        <v>0.009978690207508094</v>
+        <v>0.01103698003083871</v>
       </c>
       <c r="D50">
-        <v>-0.03509892950448459</v>
+        <v>0.02597288588010211</v>
       </c>
       <c r="E50">
-        <v>-0.009709493392339083</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02930142288551505</v>
+      </c>
+      <c r="F50">
+        <v>0.00649869239073417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.008075268913083898</v>
+        <v>0.002142259184678278</v>
       </c>
       <c r="C51">
-        <v>-0.01264914712211057</v>
+        <v>0.0005430437513529438</v>
       </c>
       <c r="D51">
-        <v>0.007783765527240872</v>
+        <v>-0.002251683668417635</v>
       </c>
       <c r="E51">
-        <v>-0.01618239594819575</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>3.663073106595591e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.003887210838739412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1370418881703913</v>
+        <v>0.1450414716376749</v>
       </c>
       <c r="C52">
-        <v>0.06904667345684835</v>
+        <v>0.01403892953513442</v>
       </c>
       <c r="D52">
-        <v>-0.01635377521477667</v>
+        <v>0.0491660194446652</v>
       </c>
       <c r="E52">
-        <v>0.01224465066064247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.02430513174267276</v>
+      </c>
+      <c r="F52">
+        <v>0.03914573881643693</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1495999662192662</v>
+        <v>0.1737257952660327</v>
       </c>
       <c r="C53">
-        <v>-0.008650788067717789</v>
+        <v>0.01694270968272718</v>
       </c>
       <c r="D53">
-        <v>0.01194555026290915</v>
+        <v>0.008227574668936736</v>
       </c>
       <c r="E53">
-        <v>0.02337766750923237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03480743919138817</v>
+      </c>
+      <c r="F53">
+        <v>0.06997053388244727</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04969889770035616</v>
+        <v>0.02240106084173606</v>
       </c>
       <c r="C54">
-        <v>0.001585348042362218</v>
+        <v>0.01240953654107424</v>
       </c>
       <c r="D54">
-        <v>-0.01195053358846739</v>
+        <v>0.03300428513023451</v>
       </c>
       <c r="E54">
-        <v>-0.01137360939997401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01575841247373045</v>
+      </c>
+      <c r="F54">
+        <v>-0.00362010475589747</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08853561215699485</v>
+        <v>0.1145293997756633</v>
       </c>
       <c r="C55">
-        <v>0.02113780081926737</v>
+        <v>0.01543864125899033</v>
       </c>
       <c r="D55">
-        <v>0.0123284164854812</v>
+        <v>0.01069672192034767</v>
       </c>
       <c r="E55">
-        <v>-0.03238309147347312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03068301120779886</v>
+      </c>
+      <c r="F55">
+        <v>0.04470245083527251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1534291088076036</v>
+        <v>0.1774790907516771</v>
       </c>
       <c r="C56">
-        <v>0.0006280561673551714</v>
+        <v>0.01436560005924383</v>
       </c>
       <c r="D56">
-        <v>-0.01235025053053896</v>
+        <v>0.005593180293295293</v>
       </c>
       <c r="E56">
-        <v>-0.01074416626143291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04054332240114642</v>
+      </c>
+      <c r="F56">
+        <v>0.0479375106432862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05002400800571107</v>
+        <v>0.04610764566740301</v>
       </c>
       <c r="C58">
-        <v>0.002760259978278142</v>
+        <v>0.00127015967377534</v>
       </c>
       <c r="D58">
-        <v>-0.01576395808219855</v>
+        <v>0.06834668808338634</v>
       </c>
       <c r="E58">
-        <v>0.01120537589706331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02444353002923631</v>
+      </c>
+      <c r="F58">
+        <v>-0.04190189501980923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1242527823759882</v>
+        <v>0.1718830969426647</v>
       </c>
       <c r="C59">
-        <v>-0.241794378182265</v>
+        <v>0.01772804337007549</v>
       </c>
       <c r="D59">
-        <v>0.1532612942836628</v>
+        <v>-0.2223222910620695</v>
       </c>
       <c r="E59">
-        <v>-0.0624402505472479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04700067708541759</v>
+      </c>
+      <c r="F59">
+        <v>-0.03130932451043208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2777902792223396</v>
+        <v>0.2348286625987563</v>
       </c>
       <c r="C60">
-        <v>0.03785175660273973</v>
+        <v>-0.004115774772743409</v>
       </c>
       <c r="D60">
-        <v>-0.02776082937193326</v>
+        <v>0.04356927300940237</v>
       </c>
       <c r="E60">
-        <v>0.0696203885702022</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0110755648008411</v>
+      </c>
+      <c r="F60">
+        <v>-0.02271750508529267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1287868828393613</v>
+        <v>0.08313791288847421</v>
       </c>
       <c r="C61">
-        <v>0.06131984050610248</v>
+        <v>0.01273361736940691</v>
       </c>
       <c r="D61">
-        <v>-0.04355728843107042</v>
+        <v>0.1159757214821283</v>
       </c>
       <c r="E61">
-        <v>-0.05375151869576226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03996367720779496</v>
+      </c>
+      <c r="F61">
+        <v>0.009560611660327224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1651141993555892</v>
+        <v>0.1697430750820859</v>
       </c>
       <c r="C62">
-        <v>0.009701403438821249</v>
+        <v>0.0180013782107671</v>
       </c>
       <c r="D62">
-        <v>-0.01101744905790381</v>
+        <v>0.01042249827144637</v>
       </c>
       <c r="E62">
-        <v>0.00140276906778892</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03711612646943672</v>
+      </c>
+      <c r="F62">
+        <v>0.03001910205558233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.05352217052274664</v>
+        <v>0.04315804839480131</v>
       </c>
       <c r="C63">
-        <v>0.02468708493046744</v>
+        <v>0.002640989694668007</v>
       </c>
       <c r="D63">
-        <v>-0.008492314998283228</v>
+        <v>0.05637165769577239</v>
       </c>
       <c r="E63">
-        <v>-0.02620485013857131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02123377390975032</v>
+      </c>
+      <c r="F63">
+        <v>0.007032710786261865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1004505952259744</v>
+        <v>0.1104563000439644</v>
       </c>
       <c r="C64">
-        <v>0.01554998407300284</v>
+        <v>0.01135494579928366</v>
       </c>
       <c r="D64">
-        <v>-0.02178335994654131</v>
+        <v>0.04183634085987827</v>
       </c>
       <c r="E64">
-        <v>-0.007020103125774059</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02122186421125491</v>
+      </c>
+      <c r="F64">
+        <v>0.0284353215757367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1123134949310353</v>
+        <v>0.1477323500145908</v>
       </c>
       <c r="C65">
-        <v>-0.003517759012472383</v>
+        <v>0.03124897465439822</v>
       </c>
       <c r="D65">
-        <v>0.0112154596967484</v>
+        <v>-0.04222808418574064</v>
       </c>
       <c r="E65">
-        <v>0.01012050807922471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.001693691080713834</v>
+      </c>
+      <c r="F65">
+        <v>0.04546185536237043</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1941878216168066</v>
+        <v>0.127680250024201</v>
       </c>
       <c r="C66">
-        <v>0.08997172459859609</v>
+        <v>0.01460669006795136</v>
       </c>
       <c r="D66">
-        <v>-0.1056268600252106</v>
+        <v>0.1432275535922103</v>
       </c>
       <c r="E66">
-        <v>-0.07684453555673694</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06816546332615671</v>
+      </c>
+      <c r="F66">
+        <v>0.02747729717033523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07122257326930048</v>
+        <v>0.06383664917943882</v>
       </c>
       <c r="C67">
-        <v>0.02390404343263386</v>
+        <v>0.00279748970718517</v>
       </c>
       <c r="D67">
-        <v>0.0003984978545302102</v>
+        <v>0.05634143753377101</v>
       </c>
       <c r="E67">
-        <v>-0.08760355995621848</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01724848662423628</v>
+      </c>
+      <c r="F67">
+        <v>-0.04160808845670422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.05328704827854112</v>
+        <v>0.1171619731375917</v>
       </c>
       <c r="C68">
-        <v>-0.2291619016499523</v>
+        <v>0.02742861945615731</v>
       </c>
       <c r="D68">
-        <v>0.1505376974790487</v>
+        <v>-0.2607610526320688</v>
       </c>
       <c r="E68">
-        <v>-0.04027329755831194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08522759909786518</v>
+      </c>
+      <c r="F68">
+        <v>0.01983403280652399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03370876577041038</v>
+        <v>0.0390773296727365</v>
       </c>
       <c r="C69">
-        <v>0.001366862028819328</v>
+        <v>0.000916669840496077</v>
       </c>
       <c r="D69">
-        <v>0.01457329936762928</v>
+        <v>0.008227967772573496</v>
       </c>
       <c r="E69">
-        <v>-0.02530134431749746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02382231679986854</v>
+      </c>
+      <c r="F69">
+        <v>-0.006235865748914793</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02938752609023331</v>
+        <v>0.0625961088253377</v>
       </c>
       <c r="C70">
-        <v>0.003381513556759501</v>
+        <v>-0.02865863373434564</v>
       </c>
       <c r="D70">
-        <v>0.0263931466589412</v>
+        <v>0.02926200170769528</v>
       </c>
       <c r="E70">
-        <v>-0.04119579977440448</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.04885174674105578</v>
+      </c>
+      <c r="F70">
+        <v>-0.2335231649622087</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.06097313019440555</v>
+        <v>0.1366751676401509</v>
       </c>
       <c r="C71">
-        <v>-0.2490898789313494</v>
+        <v>0.03188791496775266</v>
       </c>
       <c r="D71">
-        <v>0.168940275134999</v>
+        <v>-0.2748997759321004</v>
       </c>
       <c r="E71">
-        <v>-0.05081265293668603</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.09504820639391731</v>
+      </c>
+      <c r="F71">
+        <v>0.02427661127585432</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1323358467417254</v>
+        <v>0.1417870641737498</v>
       </c>
       <c r="C72">
-        <v>-0.0396510060599661</v>
+        <v>0.02501623622128591</v>
       </c>
       <c r="D72">
-        <v>-0.000421108391854829</v>
+        <v>0.0009616573955056837</v>
       </c>
       <c r="E72">
-        <v>-0.02180767469549613</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.04208603751101046</v>
+      </c>
+      <c r="F72">
+        <v>0.03030537768573776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2176194283832514</v>
+        <v>0.2013810990598683</v>
       </c>
       <c r="C73">
-        <v>-0.04248830798345191</v>
+        <v>0.01201518243626713</v>
       </c>
       <c r="D73">
-        <v>-0.0005806721175717037</v>
+        <v>0.01517598331799287</v>
       </c>
       <c r="E73">
-        <v>-0.04369964560535537</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06614249691493598</v>
+      </c>
+      <c r="F73">
+        <v>0.02559504086894634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1147926334061876</v>
+        <v>0.09440782910697161</v>
       </c>
       <c r="C74">
-        <v>0.004859751355857362</v>
+        <v>0.01229613731728857</v>
       </c>
       <c r="D74">
-        <v>-0.03137172771312063</v>
+        <v>0.01965408124857454</v>
       </c>
       <c r="E74">
-        <v>-0.01404493236425288</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0486488531797428</v>
+      </c>
+      <c r="F74">
+        <v>0.05131264438433396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1294043301258061</v>
+        <v>0.1288990147383959</v>
       </c>
       <c r="C75">
-        <v>0.01533511323517585</v>
+        <v>0.02669834876443591</v>
       </c>
       <c r="D75">
-        <v>-0.03993410204908836</v>
+        <v>0.03299120058954719</v>
       </c>
       <c r="E75">
-        <v>-0.005662739968558421</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06081216063283294</v>
+      </c>
+      <c r="F75">
+        <v>0.01447747625780141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01240085224694721</v>
+        <v>0.002895620670042376</v>
       </c>
       <c r="C76">
-        <v>-0.01253791761811704</v>
+        <v>0.0007217319067136053</v>
       </c>
       <c r="D76">
-        <v>0.00739051511120048</v>
+        <v>-0.002059826149678326</v>
       </c>
       <c r="E76">
-        <v>-0.0119934693322632</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0004764106975839816</v>
+      </c>
+      <c r="F76">
+        <v>0.00372601167813261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.09340988442156259</v>
+        <v>0.08030534355598792</v>
       </c>
       <c r="C77">
-        <v>0.0816859182787258</v>
+        <v>0.008807215607351754</v>
       </c>
       <c r="D77">
-        <v>-0.06692554802424208</v>
+        <v>0.1186621849893017</v>
       </c>
       <c r="E77">
-        <v>0.02171571743597227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.0401107324841599</v>
+      </c>
+      <c r="F77">
+        <v>0.03172238782012091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1081065478445639</v>
+        <v>0.1032567260113112</v>
       </c>
       <c r="C78">
-        <v>-0.01963579537775017</v>
+        <v>0.03974914120295489</v>
       </c>
       <c r="D78">
-        <v>-0.1301608147690166</v>
+        <v>0.1157635263319747</v>
       </c>
       <c r="E78">
-        <v>-0.1919344978472818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07871074019359102</v>
+      </c>
+      <c r="F78">
+        <v>0.05543519551920043</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1408251378617343</v>
+        <v>0.1638283518004958</v>
       </c>
       <c r="C79">
-        <v>-0.0009631236689598645</v>
+        <v>0.0206776126271492</v>
       </c>
       <c r="D79">
-        <v>-0.05227746105627565</v>
+        <v>0.01939224854109906</v>
       </c>
       <c r="E79">
-        <v>0.01393199207560556</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.04985356751297436</v>
+      </c>
+      <c r="F79">
+        <v>0.006341449652275507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08639300808857843</v>
+        <v>0.08099016485264866</v>
       </c>
       <c r="C80">
-        <v>0.06019477382819917</v>
+        <v>-0.0006967555107397168</v>
       </c>
       <c r="D80">
-        <v>-0.02034969610422437</v>
+        <v>0.05849267939213724</v>
       </c>
       <c r="E80">
-        <v>-0.05477224717740118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03653396955879069</v>
+      </c>
+      <c r="F80">
+        <v>-0.02807789533410249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1510941663674708</v>
+        <v>0.1233063009258571</v>
       </c>
       <c r="C81">
-        <v>0.02557372212127122</v>
+        <v>0.03054153075640676</v>
       </c>
       <c r="D81">
-        <v>-0.05403413486224009</v>
+        <v>0.01704825492781463</v>
       </c>
       <c r="E81">
-        <v>-0.02146732624453763</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0607874799155088</v>
+      </c>
+      <c r="F81">
+        <v>0.01096999172387144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.176825302081915</v>
+        <v>0.1641823576818818</v>
       </c>
       <c r="C82">
-        <v>0.03716900513484014</v>
+        <v>0.02273375214687118</v>
       </c>
       <c r="D82">
-        <v>-0.01898264372219582</v>
+        <v>0.008639042934205038</v>
       </c>
       <c r="E82">
-        <v>-0.01886653256919103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03351539064448302</v>
+      </c>
+      <c r="F82">
+        <v>0.07298374414230559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08172758149789264</v>
+        <v>0.06195537984942864</v>
       </c>
       <c r="C83">
-        <v>0.02274101579367624</v>
+        <v>0.003192357432548298</v>
       </c>
       <c r="D83">
-        <v>-0.00498367247659458</v>
+        <v>0.0493906770395805</v>
       </c>
       <c r="E83">
-        <v>0.07152815116325241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.005429796791295912</v>
+      </c>
+      <c r="F83">
+        <v>-0.04008368200650356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0725760229711218</v>
+        <v>0.05838825271072194</v>
       </c>
       <c r="C84">
-        <v>0.01447207609234292</v>
+        <v>0.01087565400173778</v>
       </c>
       <c r="D84">
-        <v>-0.008247646804853181</v>
+        <v>0.06691016757506332</v>
       </c>
       <c r="E84">
-        <v>6.211010074011162e-05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.006398406646654182</v>
+      </c>
+      <c r="F84">
+        <v>0.00720190496982493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1251882216299822</v>
+        <v>0.1383007930829612</v>
       </c>
       <c r="C85">
-        <v>-0.004017823222478529</v>
+        <v>0.02643155024529394</v>
       </c>
       <c r="D85">
-        <v>-0.01554789323924709</v>
+        <v>0.01281707430460199</v>
       </c>
       <c r="E85">
-        <v>0.001378942011343868</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0411836410361826</v>
+      </c>
+      <c r="F85">
+        <v>0.04518500384427739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1202819521881053</v>
+        <v>0.09565519508953546</v>
       </c>
       <c r="C86">
-        <v>-0.2102238198338943</v>
+        <v>-0.005422093770960138</v>
       </c>
       <c r="D86">
-        <v>-0.2310645456091063</v>
+        <v>0.03429775273161832</v>
       </c>
       <c r="E86">
-        <v>0.8911840211022218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.1611735859279763</v>
+      </c>
+      <c r="F86">
+        <v>-0.8998764082925201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1225533006920427</v>
+        <v>0.09516549250492705</v>
       </c>
       <c r="C87">
-        <v>0.09985013931401117</v>
+        <v>0.02212715096661636</v>
       </c>
       <c r="D87">
-        <v>0.01653350698180501</v>
+        <v>0.09295250736967227</v>
       </c>
       <c r="E87">
-        <v>0.0062374304170623</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05316574382073423</v>
+      </c>
+      <c r="F87">
+        <v>0.06784655761083336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.049667353312736</v>
+        <v>0.06114635285087727</v>
       </c>
       <c r="C88">
-        <v>0.01151456207826296</v>
+        <v>0.002454327772326923</v>
       </c>
       <c r="D88">
-        <v>-0.03160001298981121</v>
+        <v>0.05055926792552778</v>
       </c>
       <c r="E88">
-        <v>-0.0430556592326707</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02580554939497507</v>
+      </c>
+      <c r="F88">
+        <v>0.009415483583429404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1026770324706435</v>
+        <v>0.134931350272448</v>
       </c>
       <c r="C89">
-        <v>-0.3117056311549925</v>
+        <v>0.009833743338085892</v>
       </c>
       <c r="D89">
-        <v>0.204228966059915</v>
+        <v>-0.2530372001814199</v>
       </c>
       <c r="E89">
-        <v>-0.03572955029050773</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08919140923635234</v>
+      </c>
+      <c r="F89">
+        <v>0.006223912996537808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.06964675708236662</v>
+        <v>0.1485279851881069</v>
       </c>
       <c r="C90">
-        <v>-0.2597494344574849</v>
+        <v>0.02753130425086359</v>
       </c>
       <c r="D90">
-        <v>0.170537722668979</v>
+        <v>-0.2663716338436394</v>
       </c>
       <c r="E90">
-        <v>-0.03617939169098508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1094145047001853</v>
+      </c>
+      <c r="F90">
+        <v>0.009805380230415574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.09260456410586126</v>
+        <v>0.1197503741038116</v>
       </c>
       <c r="C91">
-        <v>0.005383165919147519</v>
+        <v>0.017187778285594</v>
       </c>
       <c r="D91">
-        <v>-0.02617026119586637</v>
+        <v>-0.01003675740803507</v>
       </c>
       <c r="E91">
-        <v>0.009747008307726743</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05778958918012397</v>
+      </c>
+      <c r="F91">
+        <v>-0.0112264335203436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.0863572176908725</v>
+        <v>0.1495255810450861</v>
       </c>
       <c r="C92">
-        <v>-0.2720966570077474</v>
+        <v>0.01900646506979532</v>
       </c>
       <c r="D92">
-        <v>0.2010667018003903</v>
+        <v>-0.2900048821882495</v>
       </c>
       <c r="E92">
-        <v>-0.01809831735237087</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.1030903672511605</v>
+      </c>
+      <c r="F92">
+        <v>0.001307570291562597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.06918656119906903</v>
+        <v>0.151505730467255</v>
       </c>
       <c r="C93">
-        <v>-0.2822655370730634</v>
+        <v>0.02367497306468439</v>
       </c>
       <c r="D93">
-        <v>0.1855623128616082</v>
+        <v>-0.2657101578096137</v>
       </c>
       <c r="E93">
-        <v>-0.02978845576827307</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07623562128707909</v>
+      </c>
+      <c r="F93">
+        <v>0.009976595187769255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1534335488832055</v>
+        <v>0.1317959974327016</v>
       </c>
       <c r="C94">
-        <v>0.01100027117868794</v>
+        <v>0.02379504894746873</v>
       </c>
       <c r="D94">
-        <v>-0.03816199087549892</v>
+        <v>0.04439060147138114</v>
       </c>
       <c r="E94">
-        <v>-0.05927934849283974</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06105110697317769</v>
+      </c>
+      <c r="F94">
+        <v>0.03274175782172981</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1189870695528736</v>
+        <v>0.1256043446881731</v>
       </c>
       <c r="C95">
-        <v>0.02069772833300576</v>
+        <v>0.004706967803504531</v>
       </c>
       <c r="D95">
-        <v>-0.04609101679939719</v>
+        <v>0.09319043075710431</v>
       </c>
       <c r="E95">
-        <v>-0.03773276016387316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04647973685056854</v>
+      </c>
+      <c r="F95">
+        <v>-0.01132919923072548</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01457683717974896</v>
+        <v>0.09986001838597486</v>
       </c>
       <c r="C96">
-        <v>0.0009762899458858568</v>
+        <v>-0.9887145833397004</v>
       </c>
       <c r="D96">
-        <v>-0.001944423929595602</v>
+        <v>-0.03511731221256054</v>
       </c>
       <c r="E96">
-        <v>-0.000955402509968177</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05830182991885792</v>
+      </c>
+      <c r="F96">
+        <v>0.04168654997881224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1813813040669197</v>
+        <v>0.1894848380406595</v>
       </c>
       <c r="C97">
-        <v>-0.03206797314441137</v>
+        <v>-0.009174234260376505</v>
       </c>
       <c r="D97">
-        <v>-0.05441864983186605</v>
+        <v>-0.01735929340696446</v>
       </c>
       <c r="E97">
-        <v>-0.03943777377419575</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.008743874401621381</v>
+      </c>
+      <c r="F97">
+        <v>-0.09488202129967029</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2419589759989052</v>
+        <v>0.2059639973816877</v>
       </c>
       <c r="C98">
-        <v>-0.02389039117603491</v>
+        <v>0.007334688260946815</v>
       </c>
       <c r="D98">
-        <v>0.09038168964865347</v>
+        <v>0.008418452680468168</v>
       </c>
       <c r="E98">
-        <v>0.09410681187413097</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.09606683666440781</v>
+      </c>
+      <c r="F98">
+        <v>-0.09693993214910063</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04660948786779077</v>
+        <v>0.05555702854912405</v>
       </c>
       <c r="C99">
-        <v>-0.01692814557429367</v>
+        <v>-0.00424530426987141</v>
       </c>
       <c r="D99">
-        <v>-0.01379180460838485</v>
+        <v>0.03713302144496596</v>
       </c>
       <c r="E99">
-        <v>-0.04469739890317719</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02434638897419041</v>
+      </c>
+      <c r="F99">
+        <v>-0.0002051085737610809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1337897789651555</v>
+        <v>0.1240947768262494</v>
       </c>
       <c r="C100">
-        <v>0.519074812120513</v>
+        <v>-0.05203906274107616</v>
       </c>
       <c r="D100">
-        <v>0.7586697079909841</v>
+        <v>0.3448343127071088</v>
       </c>
       <c r="E100">
-        <v>0.2460010541865141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.8943585844720634</v>
+      </c>
+      <c r="F100">
+        <v>-0.08575372836993164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02985189998233147</v>
+        <v>0.02684280934470227</v>
       </c>
       <c r="C101">
-        <v>0.009009862648075607</v>
+        <v>0.008405143833667996</v>
       </c>
       <c r="D101">
-        <v>0.003086079785092104</v>
+        <v>0.03106427790496974</v>
       </c>
       <c r="E101">
-        <v>-0.008549267765847293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01068220927565176</v>
+      </c>
+      <c r="F101">
+        <v>-0.01361230480362606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
